--- a/documents/Partes.xlsx
+++ b/documents/Partes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varog_000\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varog_000\Documents\GitHub\JuegoRol\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Accion</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>Control Cambio Mapa (Transiciones)*</t>
+  </si>
+  <si>
+    <t>Animaciones*</t>
+  </si>
+  <si>
+    <t>Tratado de imágenes e implementación de las animaciones del personaje y demás. Solo implementar el cambio de animaciones.</t>
   </si>
 </sst>
 </file>
@@ -143,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -163,11 +169,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -188,15 +209,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:F11" totalsRowShown="0">
-  <autoFilter ref="A1:F11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:F12" totalsRowShown="0">
+  <autoFilter ref="A1:F12"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Accion" dataDxfId="1"/>
-    <tableColumn id="2" name="Descripcion" dataDxfId="0"/>
-    <tableColumn id="3" name="Alvaro"/>
-    <tableColumn id="4" name="Jose"/>
-    <tableColumn id="5" name="Herrero"/>
-    <tableColumn id="6" name="Cristian"/>
+    <tableColumn id="1" name="Accion" dataDxfId="5"/>
+    <tableColumn id="2" name="Descripcion" dataDxfId="4"/>
+    <tableColumn id="3" name="Alvaro" dataDxfId="3"/>
+    <tableColumn id="4" name="Jose" dataDxfId="2"/>
+    <tableColumn id="5" name="Herrero" dataDxfId="1"/>
+    <tableColumn id="6" name="Cristian" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -465,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,111 +527,155 @@
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="H4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="C8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="C9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="C10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="C11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
+      <c r="C12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/Partes.xlsx
+++ b/documents/Partes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varog_000\Documents\GitHub\JuegoRol\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alejandro\Documents\GitHub\JuegoRol\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>Accion</t>
   </si>
@@ -489,18 +489,18 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="49.88671875" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -534,7 +534,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -548,7 +548,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -565,7 +565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -579,7 +579,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -590,10 +590,12 @@
         <v>17</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -604,10 +606,12 @@
         <v>17</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -618,10 +622,12 @@
         <v>17</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -635,7 +641,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -649,7 +655,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -663,7 +669,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>27</v>
       </c>

--- a/documents/Partes.xlsx
+++ b/documents/Partes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alejandro\Documents\GitHub\JuegoRol\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cristian\Documents\JuegoRol\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>Accion</t>
   </si>
@@ -488,19 +488,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
-    <col min="2" max="2" width="49.88671875" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -534,7 +534,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -548,7 +548,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -565,7 +565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -577,9 +577,11 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -595,7 +597,7 @@
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -611,7 +613,7 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -627,7 +629,7 @@
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -641,7 +643,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -653,9 +655,11 @@
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F10" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -669,7 +673,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>27</v>
       </c>
@@ -681,7 +685,9 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/Partes.xlsx
+++ b/documents/Partes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cristian\Documents\JuegoRol\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varog_000\Documents\GitHub\JuegoRol\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="30">
   <si>
     <t>Accion</t>
   </si>
@@ -489,7 +489,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,7 +558,9 @@
       <c r="C4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="H4" t="s">
@@ -575,7 +577,9 @@
       <c r="C5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
         <v>17</v>
@@ -607,7 +611,9 @@
       <c r="C7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="E7" s="7" t="s">
         <v>17</v>
       </c>
@@ -623,7 +629,9 @@
       <c r="C8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
@@ -669,7 +677,9 @@
       <c r="C11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
